--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340D4DC-4FC7-4A2C-9AA6-B026E3FCCD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E324B59-277C-4456-BB62-E8BA28585329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="970">
   <si>
     <t>Joker</t>
   </si>
@@ -943,24 +943,6 @@
   </si>
   <si>
     <t>Golden Joker</t>
-  </si>
-  <si>
-    <t>−1</t>
-  </si>
-  <si>
-    <t>−2</t>
-  </si>
-  <si>
-    <t>−3</t>
-  </si>
-  <si>
-    <t>−4</t>
-  </si>
-  <si>
-    <t>−5</t>
-  </si>
-  <si>
-    <t>−6</t>
   </si>
   <si>
     <t>X3.15; 1 in 1500</t>
@@ -3245,6 +3227,102 @@
   </si>
   <si>
     <t>Retrig not first</t>
+  </si>
+  <si>
+    <t>wrap around</t>
+  </si>
+  <si>
+    <t>−1 blind level</t>
+  </si>
+  <si>
+    <t>−2 blind level</t>
+  </si>
+  <si>
+    <t>−3 blind level</t>
+  </si>
+  <si>
+    <t>−4 blind level</t>
+  </si>
+  <si>
+    <t>−5 blind level</t>
+  </si>
+  <si>
+    <t>−6 blind level</t>
+  </si>
+  <si>
+    <t>2 tag</t>
+  </si>
+  <si>
+    <t>1 tag</t>
+  </si>
+  <si>
+    <t>3 tag</t>
+  </si>
+  <si>
+    <t>4 tag</t>
+  </si>
+  <si>
+    <t>5 tag</t>
+  </si>
+  <si>
+    <t>X3.5; $100</t>
+  </si>
+  <si>
+    <t>X2; $40</t>
+  </si>
+  <si>
+    <t>X2.5; $60</t>
+  </si>
+  <si>
+    <t>X3; $80</t>
+  </si>
+  <si>
+    <t>X4; $120</t>
+  </si>
+  <si>
+    <t>X4.5; $140</t>
+  </si>
+  <si>
+    <t>3 levels</t>
+  </si>
+  <si>
+    <t>5 levels</t>
+  </si>
+  <si>
+    <t>7 levels</t>
+  </si>
+  <si>
+    <t>9 levels</t>
+  </si>
+  <si>
+    <t>11 levels</t>
+  </si>
+  <si>
+    <t>13 levels</t>
+  </si>
+  <si>
+    <t>2 Jok, any rarity</t>
+  </si>
+  <si>
+    <t>+1 Tag</t>
+  </si>
+  <si>
+    <t>+2 Tag</t>
+  </si>
+  <si>
+    <t>+3 Tag</t>
+  </si>
+  <si>
+    <t>+4 Tag</t>
+  </si>
+  <si>
+    <t>+5 Tag</t>
+  </si>
+  <si>
+    <t>+8 hs</t>
+  </si>
+  <si>
+    <t>+6 Tag</t>
   </si>
 </sst>
 </file>
@@ -3372,7 +3450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3541,6 +3619,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3549,16 +3630,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF18D660"/>
+      <color rgb="FFFF832F"/>
+      <color rgb="FFE5BB23"/>
+      <color rgb="FF3EABD6"/>
       <color rgb="FFB479D5"/>
-      <color rgb="FF3EABD6"/>
       <color rgb="FFADADAD"/>
       <color rgb="FF3D55E7"/>
       <color rgb="FF2598EF"/>
-      <color rgb="FFE5BB23"/>
-      <color rgb="FF18D660"/>
       <color rgb="FFDB2929"/>
       <color rgb="FFF5657D"/>
-      <color rgb="FFFF832F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3904,7 +3985,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4367,22 +4448,22 @@
         <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,7 +4606,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>162</v>
@@ -4548,30 +4629,30 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>162</v>
@@ -4594,30 +4675,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -4640,7 +4721,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -4663,30 +4744,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -4709,7 +4790,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>162</v>
@@ -4751,7 +4832,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4774,30 +4855,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -4812,7 +4893,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>85</v>
@@ -4820,7 +4901,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>186</v>
@@ -4835,15 +4916,15 @@
         <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>161</v>
@@ -4866,53 +4947,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -4935,7 +5016,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>236</v>
@@ -5327,7 +5408,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5350,347 +5431,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6026,7 +6107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240DC4-48F2-4250-90A0-94515EDF05F3}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6036,7 +6119,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6059,7 +6142,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>278</v>
@@ -6072,7 +6155,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>278</v>
@@ -6085,7 +6168,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>278</v>
@@ -6098,7 +6181,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>278</v>
@@ -6111,7 +6194,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>278</v>
@@ -6124,7 +6207,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>278</v>
@@ -6137,20 +6220,30 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+        <v>752</v>
+      </c>
+      <c r="B8" s="53">
+        <v>25</v>
+      </c>
+      <c r="C8" s="53">
+        <v>35</v>
+      </c>
+      <c r="D8" s="53">
+        <v>45</v>
+      </c>
+      <c r="E8" s="53">
+        <v>55</v>
+      </c>
+      <c r="F8" s="53">
+        <v>65</v>
+      </c>
+      <c r="G8" s="53">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>278</v>
@@ -6163,7 +6256,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>278</v>
@@ -6176,7 +6269,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>278</v>
@@ -6184,7 +6277,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>278</v>
@@ -6192,7 +6285,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>278</v>
@@ -6200,7 +6293,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>278</v>
@@ -6208,23 +6301,53 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>278</v>
+        <v>760</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>278</v>
+        <v>761</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>278</v>
@@ -6232,87 +6355,173 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>278</v>
       </c>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>278</v>
+        <v>763</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>770</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+        <v>764</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>278</v>
+        <v>765</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>278</v>
+        <v>766</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+        <v>767</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="53">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>15</v>
+      </c>
+      <c r="E23" s="53">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>25</v>
+      </c>
+      <c r="G23" s="53">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+        <v>768</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>958</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+        <v>769</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
@@ -6598,6 +6807,7 @@
       <c r="G112" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6618,7 +6828,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6641,7 +6851,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>278</v>
@@ -6654,7 +6864,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>278</v>
@@ -6667,7 +6877,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>278</v>
@@ -6680,7 +6890,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>278</v>
@@ -6693,7 +6903,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>278</v>
@@ -6706,7 +6916,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>278</v>
@@ -6719,7 +6929,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>278</v>
@@ -6732,7 +6942,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>278</v>
@@ -6745,7 +6955,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>278</v>
@@ -6758,7 +6968,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>278</v>
@@ -6766,7 +6976,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>278</v>
@@ -6774,7 +6984,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>278</v>
@@ -6782,7 +6992,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>278</v>
@@ -6790,7 +7000,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>278</v>
@@ -6798,7 +7008,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>278</v>
@@ -6806,7 +7016,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>278</v>
@@ -6814,7 +7024,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>278</v>
@@ -6822,7 +7032,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>278</v>
@@ -6830,7 +7040,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>278</v>
@@ -6843,7 +7053,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>278</v>
@@ -6851,7 +7061,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>278</v>
@@ -6859,7 +7069,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>278</v>
@@ -6872,7 +7082,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>278</v>
@@ -6885,7 +7095,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>278</v>
@@ -6898,7 +7108,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>278</v>
@@ -6906,7 +7116,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>278</v>
@@ -6919,7 +7129,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>278</v>
@@ -6927,7 +7137,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>278</v>
@@ -6935,7 +7145,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>278</v>
@@ -6948,7 +7158,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>278</v>
@@ -6956,7 +7166,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>278</v>
@@ -6969,7 +7179,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>278</v>
@@ -7243,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7E899-5D82-4644-B2FD-C53C4652EA06}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7255,22 +7465,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -7285,493 +7495,493 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C5" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D5" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G5" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="H5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="I5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="J5" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="K5" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G6" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="H6" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="I6" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="J6" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="K6" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="H7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I7" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="J7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="K7" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F8" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G8" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="H8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G9" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G10" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="K11" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G12" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="K12" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F13" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K13" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F14" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="K14" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="F15" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="K15" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="K16" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F17" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="K17" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F18" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="K18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F19" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K19" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F20" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G20" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F21" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="K21" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>268</v>
@@ -7780,197 +7990,197 @@
         <v>266</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F22" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="K22" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F23" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="I23" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="K23" t="s">
         <v>924</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="K23" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F26" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="K26" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F27" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="H27" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>860</v>
-      </c>
       <c r="K27" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F28" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="K28" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F29" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="K29" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8404,7 +8614,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -8548,19 +8758,19 @@
         <v>240</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8709,24 +8919,24 @@
         <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>113</v>
@@ -8749,7 +8959,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>186</v>
@@ -8761,64 +8971,64 @@
         <v>280</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>113</v>
@@ -8830,10 +9040,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>241</v>
@@ -8841,7 +9051,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>178</v>
@@ -8864,7 +9074,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>113</v>
@@ -8876,10 +9086,10 @@
         <v>117</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>241</v>
@@ -8887,45 +9097,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>186</v>
@@ -8933,91 +9143,91 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>185</v>
@@ -9025,7 +9235,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -9034,10 +9244,10 @@
         <v>188</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>178</v>
@@ -9048,7 +9258,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>178</v>
@@ -9071,7 +9281,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>221</v>
@@ -9080,21 +9290,21 @@
         <v>224</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>178</v>
@@ -9117,7 +9327,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -9126,10 +9336,10 @@
         <v>188</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>178</v>
@@ -9140,30 +9350,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
@@ -9175,7 +9385,7 @@
         <v>65</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>178</v>
@@ -9186,7 +9396,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>65</v>
@@ -9195,10 +9405,10 @@
         <v>188</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>178</v>
@@ -9209,25 +9419,25 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -9252,7 +9462,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9597,7 +9807,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>162</v>
@@ -9620,30 +9830,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>8</v>
@@ -9666,25 +9876,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -9697,7 +9907,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9709,7 +9919,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9781,22 +9991,22 @@
         <v>128</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>156</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10031,30 +10241,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -10077,7 +10287,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -10100,7 +10310,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -10123,7 +10333,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -10146,6 +10356,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:G9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10154,7 +10367,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10166,7 +10379,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10192,7 +10405,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>576</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10200,22 +10416,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10254,22 +10470,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10300,22 +10516,22 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -10400,7 +10616,7 @@
         <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -10499,8 +10715,8 @@
       <c r="A18" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>278</v>
+      <c r="C18" s="2" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -10539,22 +10755,22 @@
         <v>284</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>939</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>299</v>
+        <v>940</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>941</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>301</v>
+        <v>942</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>302</v>
+        <v>943</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>303</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10562,22 +10778,22 @@
         <v>287</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10585,16 +10801,16 @@
         <v>292</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>210</v>
@@ -10608,22 +10824,22 @@
         <v>294</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10631,73 +10847,73 @@
         <v>295</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -10720,64 +10936,64 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>278</v>
@@ -10785,30 +11001,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>278</v>
@@ -10816,7 +11032,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>278</v>
@@ -10824,70 +11040,70 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>278</v>
@@ -10895,7 +11111,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
@@ -10918,7 +11134,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>278</v>
@@ -10926,53 +11142,53 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>298</v>
+        <v>939</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>299</v>
+        <v>940</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>300</v>
+        <v>941</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>301</v>
+        <v>942</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>302</v>
+        <v>943</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>303</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>195</v>
@@ -10981,16 +11197,16 @@
         <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -11003,7 +11219,7 @@
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11015,7 +11231,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11038,11 +11254,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -11051,69 +11267,69 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>231</v>
@@ -11131,322 +11347,322 @@
         <v>235</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>247</v>
@@ -11466,19 +11682,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -11834,7 +12050,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11846,7 +12062,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11869,279 +12085,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -12479,7 +12695,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12491,7 +12707,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12514,7 +12730,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>278</v>
@@ -12527,15 +12743,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>278</v>
+        <v>924</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>278</v>
@@ -12543,76 +12774,76 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>625</v>
-      </c>
       <c r="E6" s="33" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -12621,192 +12852,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>580</v>
-      </c>
       <c r="D15" s="33" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>581</v>
-      </c>
       <c r="E16" s="33" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13134,7 +13365,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13145,7 +13376,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13168,7 +13399,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>85</v>
@@ -13180,18 +13411,18 @@
         <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -13214,38 +13445,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>186</v>
@@ -13260,38 +13491,38 @@
         <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -13314,25 +13545,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E324B59-277C-4456-BB62-E8BA28585329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F52CC-69CF-4CD4-9D8C-6D2AB4C2CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="990">
   <si>
     <t>Joker</t>
   </si>
@@ -805,9 +805,6 @@
   </si>
   <si>
     <t>6 Jok</t>
-  </si>
-  <si>
-    <t>7 Jok</t>
   </si>
   <si>
     <t>2 Spe</t>
@@ -3323,6 +3320,69 @@
   </si>
   <si>
     <t>+6 Tag</t>
+  </si>
+  <si>
+    <t>Mega Spectral</t>
+  </si>
+  <si>
+    <t>Normal Spectral</t>
+  </si>
+  <si>
+    <t>2 Vouc, 20% off</t>
+  </si>
+  <si>
+    <t>1 Vouc, 0% off</t>
+  </si>
+  <si>
+    <t>3 Vouc, 40% off</t>
+  </si>
+  <si>
+    <t>4 Vouc, 60% off</t>
+  </si>
+  <si>
+    <t>5 Vouc, 80% off</t>
+  </si>
+  <si>
+    <t>6 Vouc, 100% off</t>
+  </si>
+  <si>
+    <t>−0 blind level</t>
+  </si>
+  <si>
+    <t>+0 pack level</t>
+  </si>
+  <si>
+    <t>+1 pack level</t>
+  </si>
+  <si>
+    <t>+2 pack level</t>
+  </si>
+  <si>
+    <t>+3 pack level</t>
+  </si>
+  <si>
+    <t>+4 pack level</t>
+  </si>
+  <si>
+    <t>+5 pack level</t>
+  </si>
+  <si>
+    <t>−$3; 2X slower</t>
+  </si>
+  <si>
+    <t>−$4; 3X slower</t>
+  </si>
+  <si>
+    <t>−$5; 4X slower</t>
+  </si>
+  <si>
+    <t>−$6; 5X slower</t>
+  </si>
+  <si>
+    <t>−$7; 6X slower</t>
+  </si>
+  <si>
+    <t>bugged</t>
   </si>
 </sst>
 </file>
@@ -3450,7 +3510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3622,6 +3682,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3630,12 +3700,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE5BB23"/>
       <color rgb="FF18D660"/>
-      <color rgb="FFFF832F"/>
-      <color rgb="FFE5BB23"/>
+      <color rgb="FFADADAD"/>
       <color rgb="FF3EABD6"/>
       <color rgb="FFB479D5"/>
-      <color rgb="FFADADAD"/>
+      <color rgb="FFFF832F"/>
       <color rgb="FF3D55E7"/>
       <color rgb="FF2598EF"/>
       <color rgb="FFDB2929"/>
@@ -3985,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4448,22 +4518,22 @@
         <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,7 +4630,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4583,7 +4653,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>161</v>
@@ -4606,7 +4676,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>162</v>
@@ -4629,30 +4699,30 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>162</v>
@@ -4675,30 +4745,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -4721,7 +4791,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -4744,30 +4814,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -4790,7 +4860,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>162</v>
@@ -4832,7 +4902,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4855,30 +4925,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -4893,7 +4963,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>85</v>
@@ -4901,7 +4971,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>186</v>
@@ -4916,15 +4986,15 @@
         <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>161</v>
@@ -4947,53 +5017,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>600</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5016,7 +5086,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>236</v>
@@ -5397,7 +5467,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5408,7 +5478,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5431,347 +5501,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="54" t="s">
         <v>702</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="54" t="s">
         <v>703</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>704</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="G2" s="54" t="s">
         <v>705</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="54" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="E3" s="54" t="s">
         <v>705</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>706</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>707</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>704</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="54" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="E4" s="54" t="s">
         <v>706</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="F4" s="54" t="s">
         <v>707</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>708</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>710</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="F5" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="G5" s="55" t="s">
         <v>714</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="D6" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="E6" s="55" t="s">
         <v>714</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="F6" s="55" t="s">
         <v>715</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="G6" s="55" t="s">
         <v>716</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="D7" s="55" t="s">
         <v>714</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="E7" s="55" t="s">
         <v>715</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="F7" s="55" t="s">
         <v>716</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="G7" s="55" t="s">
         <v>717</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>719</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="D8" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E8" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="F8" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="G8" s="56" t="s">
         <v>723</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B9" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="D9" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="E9" s="56" t="s">
         <v>723</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="F9" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="G9" s="56" t="s">
         <v>725</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="D10" s="56" t="s">
         <v>723</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E10" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="F10" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="56" t="s">
         <v>726</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>732</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>734</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>735</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B14" s="57" t="s">
+        <v>736</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>737</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="D14" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="G14" s="57" t="s">
         <v>741</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B15" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="D15" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>741</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="57" t="s">
         <v>743</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B16" s="57" t="s">
+        <v>739</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="D16" s="57" t="s">
         <v>741</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>743</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="G16" s="57" t="s">
         <v>744</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6105,10 +6175,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240DC4-48F2-4250-90A0-94515EDF05F3}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6117,9 +6187,9 @@
     <col min="2" max="7" width="15" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6140,12 +6210,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -6153,12 +6223,12 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -6166,12 +6236,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -6179,12 +6249,12 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -6192,12 +6262,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6205,12 +6275,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6218,9 +6288,9 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6241,67 +6311,148 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>972</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>971</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>973</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>974</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>975</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="61" t="s">
+        <v>978</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>979</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>980</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>981</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>982</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="30" t="s">
+        <v>978</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>979</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>981</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>980</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>981</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>982</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>978</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>979</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>980</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>981</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>982</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6322,9 +6473,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6347,70 +6498,85 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>278</v>
+        <v>757</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>967</v>
-      </c>
       <c r="G19" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>110</v>
@@ -6433,13 +6599,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>248</v>
@@ -6456,7 +6622,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -6479,48 +6645,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>956</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="D24" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="E24" s="37" t="s">
         <v>958</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="F24" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="37" t="s">
         <v>960</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>954</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6814,10 +6980,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4753AC0-67C7-4681-A3DF-1999C4921B5E}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6826,9 +6992,9 @@
     <col min="2" max="7" width="15" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6849,12 +7015,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -6862,12 +7028,12 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -6875,12 +7041,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -6888,12 +7054,12 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -6901,12 +7067,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6914,12 +7080,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6927,38 +7093,61 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="B10" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -6966,84 +7155,84 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="B16" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -7053,26 +7242,26 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -7082,10 +7271,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7095,10 +7284,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -7108,18 +7297,18 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -7129,26 +7318,26 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -7158,18 +7347,18 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -7179,10 +7368,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7451,10 +7640,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7E899-5D82-4644-B2FD-C53C4652EA06}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7465,22 +7654,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>808</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -7495,695 +7684,698 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="H2" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>840</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>841</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>842</v>
-      </c>
       <c r="K2" s="58" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G5" t="s">
+        <v>844</v>
+      </c>
+      <c r="H5" t="s">
         <v>845</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>846</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>847</v>
       </c>
-      <c r="J5" t="s">
-        <v>848</v>
-      </c>
       <c r="K5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G6" t="s">
+        <v>902</v>
+      </c>
+      <c r="H6" t="s">
         <v>903</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>904</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>905</v>
       </c>
-      <c r="J6" t="s">
-        <v>906</v>
-      </c>
       <c r="K6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>889</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>890</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="D7" s="59" t="s">
         <v>891</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>892</v>
-      </c>
       <c r="E7" s="59" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G7" t="s">
+        <v>884</v>
+      </c>
+      <c r="H7" t="s">
         <v>885</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>886</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>887</v>
       </c>
-      <c r="J7" t="s">
-        <v>888</v>
-      </c>
       <c r="K7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>868</v>
-      </c>
       <c r="K11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="F14" t="s">
+        <v>837</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="F14" t="s">
-        <v>838</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>884</v>
-      </c>
       <c r="K14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="F16" t="s">
+        <v>837</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="K16" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="F16" t="s">
-        <v>838</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>928</v>
-      </c>
-      <c r="K16" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="F17" t="s">
+        <v>837</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="K17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>860</v>
-      </c>
-      <c r="F17" t="s">
-        <v>838</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="K17" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>837</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="K18" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F18" t="s">
-        <v>838</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="E19" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="F19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="K19" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="B20" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="F20" t="s">
+        <v>837</v>
+      </c>
+      <c r="G20" t="s">
         <v>876</v>
-      </c>
-      <c r="F19" t="s">
-        <v>838</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>874</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>875</v>
-      </c>
-      <c r="K19" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>880</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F20" t="s">
-        <v>838</v>
-      </c>
-      <c r="G20" t="s">
-        <v>877</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="F21" t="s">
+        <v>837</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="K21" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>871</v>
-      </c>
-      <c r="F21" t="s">
-        <v>838</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>863</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>870</v>
-      </c>
-      <c r="K21" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="F22" t="s">
+        <v>837</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="K22" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B23" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="F22" t="s">
-        <v>838</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>910</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>912</v>
-      </c>
-      <c r="K22" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="F23" t="s">
+        <v>837</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="K23" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>831</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>921</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="F23" t="s">
-        <v>838</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="K23" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>832</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="F26" t="s">
+        <v>837</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="K26" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>876</v>
-      </c>
-      <c r="F26" t="s">
-        <v>838</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="B27" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="F27" t="s">
+        <v>837</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="K27" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="F27" t="s">
-        <v>838</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>846</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="K27" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="F28" t="s">
+        <v>837</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="K28" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="F28" t="s">
-        <v>838</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>936</v>
-      </c>
-      <c r="K28" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="F29" t="s">
         <v>837</v>
       </c>
-      <c r="F29" t="s">
-        <v>838</v>
-      </c>
       <c r="G29" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>934</v>
-      </c>
       <c r="K29" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -8194,7 +8386,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -8614,7 +8806,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -8758,19 +8950,19 @@
         <v>240</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8821,7 +9013,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>218</v>
@@ -8844,7 +9036,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>218</v>
@@ -8867,7 +9059,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>186</v>
@@ -8876,13 +9068,13 @@
         <v>66</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>65</v>
@@ -8890,7 +9082,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>112</v>
@@ -8905,38 +9097,38 @@
         <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>113</v>
@@ -8959,76 +9151,76 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>113</v>
@@ -9040,10 +9232,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>241</v>
@@ -9051,7 +9243,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>178</v>
@@ -9074,7 +9266,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>113</v>
@@ -9086,10 +9278,10 @@
         <v>117</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>241</v>
@@ -9097,45 +9289,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>186</v>
@@ -9143,91 +9335,91 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>185</v>
@@ -9235,7 +9427,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -9244,10 +9436,10 @@
         <v>188</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>178</v>
@@ -9258,7 +9450,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>178</v>
@@ -9281,7 +9473,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>221</v>
@@ -9290,21 +9482,21 @@
         <v>224</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>178</v>
@@ -9327,7 +9519,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -9336,10 +9528,10 @@
         <v>188</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>178</v>
@@ -9350,30 +9542,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
@@ -9385,7 +9577,7 @@
         <v>65</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>178</v>
@@ -9396,7 +9588,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>65</v>
@@ -9405,10 +9597,10 @@
         <v>188</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>178</v>
@@ -9419,25 +9611,25 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -9462,7 +9654,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9784,7 +9976,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
@@ -9807,7 +9999,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>162</v>
@@ -9830,30 +10022,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>8</v>
@@ -9876,25 +10068,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>513</v>
-      </c>
       <c r="D19" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -9919,7 +10111,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9991,22 +10183,22 @@
         <v>128</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>156</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10080,7 +10272,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -10103,30 +10295,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -10149,7 +10341,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>151</v>
@@ -10172,7 +10364,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -10195,7 +10387,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -10218,7 +10410,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -10241,30 +10433,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -10287,7 +10479,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -10310,7 +10502,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -10333,7 +10525,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -10366,8 +10558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10379,7 +10571,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10405,10 +10597,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10416,30 +10608,30 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>278</v>
+      <c r="B4" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10470,22 +10662,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10516,30 +10708,30 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>278</v>
+      <c r="B9" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -10616,7 +10808,7 @@
         <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -10673,19 +10865,19 @@
         <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -10696,121 +10888,121 @@
         <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>210</v>
@@ -10821,99 +11013,99 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="F24" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -10936,182 +11128,182 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>278</v>
+        <v>395</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>278</v>
+        <v>402</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>278</v>
+        <v>404</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="F36" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>278</v>
+        <v>474</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
@@ -11134,61 +11326,61 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>278</v>
+        <v>479</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>195</v>
@@ -11197,16 +11389,16 @@
         <v>196</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -11231,7 +11423,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11254,11 +11446,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -11267,69 +11459,69 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>602</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>231</v>
@@ -11347,322 +11539,322 @@
         <v>235</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D7" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>589</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="D12" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>593</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="31" t="s">
         <v>594</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>583</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>577</v>
-      </c>
       <c r="E19" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>577</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>577</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>247</v>
@@ -11682,19 +11874,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="D23" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>577</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12062,7 +12254,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12085,279 +12277,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>501</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="D9" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="F9" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="D12" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="F12" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -12695,7 +12887,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12707,7 +12899,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12730,10 +12922,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>278</v>
+        <v>555</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>277</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -12743,107 +12935,107 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>946</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>947</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>948</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>278</v>
+        <v>557</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>577</v>
-      </c>
       <c r="G5" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>615</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>629</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>630</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -12852,192 +13044,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>617</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>625</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>576</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>611</v>
-      </c>
       <c r="E14" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="E15" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="33" t="s">
         <v>576</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="F16" s="33" t="s">
         <v>576</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="F17" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>505</v>
-      </c>
       <c r="G17" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
         <v>608</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13365,7 +13557,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13376,7 +13568,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13399,7 +13591,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>85</v>
@@ -13411,18 +13603,18 @@
         <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -13445,38 +13637,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>186</v>
@@ -13491,38 +13683,38 @@
         <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -13545,25 +13737,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>678</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F52CC-69CF-4CD4-9D8C-6D2AB4C2CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7CE76-F27D-4EFC-B8A6-4C20862DA7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1061">
   <si>
     <t>Joker</t>
   </si>
@@ -2764,9 +2764,6 @@
     <t>Nacho Tong</t>
   </si>
   <si>
-    <t>Waterful</t>
-  </si>
-  <si>
     <t>Recyclomancy</t>
   </si>
   <si>
@@ -2788,9 +2785,6 @@
     <t>Money Tree</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Antimatter</t>
   </si>
   <si>
@@ -3382,7 +3376,226 @@
     <t>−$7; 6X slower</t>
   </si>
   <si>
-    <t>bugged</t>
+    <t>3 card, seal</t>
+  </si>
+  <si>
+    <t>3 card, edition</t>
+  </si>
+  <si>
+    <t>1 in 1.33 neg</t>
+  </si>
+  <si>
+    <t>1 in 1.67 neg</t>
+  </si>
+  <si>
+    <t>1/2 neg else destr</t>
+  </si>
+  <si>
+    <t>All suits same</t>
+  </si>
+  <si>
+    <t>1 in 30 duplicate</t>
+  </si>
+  <si>
+    <t>1 in 25 duplicate</t>
+  </si>
+  <si>
+    <t>1 in 20 duplicate</t>
+  </si>
+  <si>
+    <t>Tarots free</t>
+  </si>
+  <si>
+    <t>Planets free</t>
+  </si>
+  <si>
+    <t>All consum free</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Immune debuff</t>
+  </si>
+  <si>
+    <t>im plant and mark</t>
+  </si>
+  <si>
+    <t>+1 shop</t>
+  </si>
+  <si>
+    <t>+2 shop</t>
+  </si>
+  <si>
+    <t>+1 booster</t>
+  </si>
+  <si>
+    <t>Wasteful</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>+1 Joker slot</t>
+  </si>
+  <si>
+    <t>+2 Joker slot</t>
+  </si>
+  <si>
+    <t>+3 Joker slot</t>
+  </si>
+  <si>
+    <t>+4 Joker slot</t>
+  </si>
+  <si>
+    <t>+5 Joker slot</t>
+  </si>
+  <si>
+    <t>+6 Joker slot</t>
+  </si>
+  <si>
+    <t>+2 consum slot</t>
+  </si>
+  <si>
+    <t>+1 consum slot</t>
+  </si>
+  <si>
+    <t>+3 consum slot</t>
+  </si>
+  <si>
+    <t>+4 consum slot</t>
+  </si>
+  <si>
+    <t>+5 consum slot</t>
+  </si>
+  <si>
+    <t>+6 consum slot</t>
+  </si>
+  <si>
+    <t>Spec in Shop</t>
+  </si>
+  <si>
+    <t>Spec in Arca</t>
+  </si>
+  <si>
+    <t>+5 hand</t>
+  </si>
+  <si>
+    <t>+6 hand</t>
+  </si>
+  <si>
+    <t>−1 Ante, −1 hand</t>
+  </si>
+  <si>
+    <t>−1 Ante, −1 disc</t>
+  </si>
+  <si>
+    <t>−1 Ante</t>
+  </si>
+  <si>
+    <t>−2 Ante</t>
+  </si>
+  <si>
+    <t>−3 Ante</t>
+  </si>
+  <si>
+    <t>−4 Ante</t>
+  </si>
+  <si>
+    <t>−5 Ante</t>
+  </si>
+  <si>
+    <t>1 boss reroll</t>
+  </si>
+  <si>
+    <t>2 boss reroll</t>
+  </si>
+  <si>
+    <t>3 boss reroll</t>
+  </si>
+  <si>
+    <t>4 boss reroll</t>
+  </si>
+  <si>
+    <t>5 boss reroll</t>
+  </si>
+  <si>
+    <t>6 boss reroll</t>
+  </si>
+  <si>
+    <t>Spec X2</t>
+  </si>
+  <si>
+    <t>Spec X3</t>
+  </si>
+  <si>
+    <t>X2 Tar</t>
+  </si>
+  <si>
+    <t>X2.25 Tar</t>
+  </si>
+  <si>
+    <t>X2.5 Tar</t>
+  </si>
+  <si>
+    <t>X2.75 Tar</t>
+  </si>
+  <si>
+    <t>X3 Tar</t>
+  </si>
+  <si>
+    <t>X3 Pla</t>
+  </si>
+  <si>
+    <t>X4 Tar</t>
+  </si>
+  <si>
+    <t>X4.5 Tar</t>
+  </si>
+  <si>
+    <t>X5 Tar</t>
+  </si>
+  <si>
+    <t>X5.5 Tar</t>
+  </si>
+  <si>
+    <t>X6 Tar</t>
+  </si>
+  <si>
+    <t>X6 Pla</t>
+  </si>
+  <si>
+    <t>X2 Pla</t>
+  </si>
+  <si>
+    <t>X4 Pla</t>
+  </si>
+  <si>
+    <t>X2.25 Pla</t>
+  </si>
+  <si>
+    <t>X2.5 Pla</t>
+  </si>
+  <si>
+    <t>X2.75 Pla</t>
+  </si>
+  <si>
+    <t>X4.5 Pla</t>
+  </si>
+  <si>
+    <t>X5 Pla</t>
+  </si>
+  <si>
+    <t>X5.5 Pla</t>
+  </si>
+  <si>
+    <t>Spec X4</t>
+  </si>
+  <si>
+    <t>Spec X5</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3609,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3489,6 +3702,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2598EF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3510,7 +3730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3689,7 +3909,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3700,15 +3930,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2598EF"/>
+      <color rgb="FF18D660"/>
+      <color rgb="FF3EABD6"/>
+      <color rgb="FFDB2929"/>
+      <color rgb="FFB479D5"/>
       <color rgb="FFE5BB23"/>
-      <color rgb="FF18D660"/>
+      <color rgb="FF3D55E7"/>
       <color rgb="FFADADAD"/>
-      <color rgb="FF3EABD6"/>
-      <color rgb="FFB479D5"/>
       <color rgb="FFFF832F"/>
-      <color rgb="FF3D55E7"/>
-      <color rgb="FF2598EF"/>
-      <color rgb="FFDB2929"/>
       <color rgb="FFF5657D"/>
     </mruColors>
   </colors>
@@ -6177,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240DC4-48F2-4250-90A0-94515EDF05F3}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6189,7 +6419,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6316,22 +6546,22 @@
         <v>752</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>970</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>969</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>971</v>
+      </c>
+      <c r="E9" s="63" t="s">
         <v>972</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>971</v>
-      </c>
-      <c r="D9" s="63" t="s">
+      <c r="F9" s="63" t="s">
         <v>973</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="G9" s="63" t="s">
         <v>974</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>975</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6339,46 +6569,46 @@
         <v>753</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>976</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>977</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>978</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="E11" s="61" t="s">
         <v>979</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="F11" s="61" t="s">
         <v>980</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="G11" s="61" t="s">
         <v>981</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>982</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6386,22 +6616,22 @@
         <v>755</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>978</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="F12" s="30" t="s">
         <v>980</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>981</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>982</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6409,22 +6639,22 @@
         <v>756</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>976</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>978</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="E13" s="36" t="s">
         <v>979</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="F13" s="36" t="s">
         <v>980</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="G13" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>982</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6432,22 +6662,22 @@
         <v>758</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>976</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>977</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>978</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="E14" s="62" t="s">
         <v>979</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="F14" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="G14" s="62" t="s">
         <v>981</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>982</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6501,22 +6731,22 @@
         <v>757</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D17" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>979</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="G17" s="45" t="s">
         <v>980</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>981</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -6533,22 +6763,22 @@
         <v>762</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>966</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6571,7 +6801,7 @@
         <v>470</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,7 +6835,7 @@
         <v>247</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>248</v>
@@ -6648,22 +6878,22 @@
         <v>767</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>955</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="E24" s="37" t="s">
         <v>956</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="F24" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="G24" s="37" t="s">
         <v>958</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>959</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6671,22 +6901,22 @@
         <v>768</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>952</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6982,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4753AC0-67C7-4681-A3DF-1999C4921B5E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6994,7 +7224,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -7016,56 +7246,84 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="67" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="B2" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1004</v>
+      </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="67" t="s">
         <v>770</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="B3" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1004</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="67" t="s">
         <v>771</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="B4" s="64">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="66">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0.31</v>
+      </c>
+      <c r="E4" s="66">
+        <v>0.34</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0.37</v>
+      </c>
+      <c r="G4" s="66">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="67" t="s">
         <v>772</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="B5" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="66">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.62</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0.68</v>
+      </c>
+      <c r="F5" s="65">
+        <v>0.74</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -7094,73 +7352,96 @@
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="67" t="s">
         <v>775</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>988</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="67" t="s">
         <v>776</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>989</v>
-      </c>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="B10" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="67" t="s">
         <v>778</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>277</v>
+      <c r="B11" s="33" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -7172,109 +7453,264 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="67" t="s">
         <v>780</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>277</v>
+      <c r="B13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="68" t="s">
         <v>781</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>277</v>
+      <c r="B14" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="67" t="s">
         <v>782</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>277</v>
+      <c r="B15" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
         <v>783</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
         <v>784</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
         <v>785</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
         <v>786</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
         <v>787</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
         <v>788</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
         <v>789</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>277</v>
+      <c r="A24" s="68" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1007</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7283,21 +7719,31 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="68" t="s">
+        <v>790</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>277</v>
@@ -7305,7 +7751,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>277</v>
@@ -7317,61 +7763,141 @@
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="68" t="s">
+        <v>793</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>794</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
         <v>795</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="B30" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
         <v>796</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
         <v>797</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
         <v>798</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>277</v>
+      <c r="B33" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7642,8 +8168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7E899-5D82-4644-B2FD-C53C4652EA06}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7654,22 +8180,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>807</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -7689,36 +8215,36 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="I2" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>841</v>
-      </c>
       <c r="K2" s="58" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C3" t="s">
         <v>588</v>
@@ -7730,223 +8256,223 @@
         <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G5" t="s">
+        <v>842</v>
+      </c>
+      <c r="H5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I5" t="s">
         <v>844</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>845</v>
       </c>
-      <c r="I5" t="s">
-        <v>846</v>
-      </c>
-      <c r="J5" t="s">
-        <v>847</v>
-      </c>
       <c r="K5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G6" t="s">
+        <v>900</v>
+      </c>
+      <c r="H6" t="s">
+        <v>901</v>
+      </c>
+      <c r="I6" t="s">
         <v>902</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>903</v>
       </c>
-      <c r="I6" t="s">
-        <v>904</v>
-      </c>
-      <c r="J6" t="s">
-        <v>905</v>
-      </c>
       <c r="K6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>888</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>889</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>890</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>891</v>
-      </c>
       <c r="E7" s="59" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G7" t="s">
+        <v>882</v>
+      </c>
+      <c r="H7" t="s">
+        <v>883</v>
+      </c>
+      <c r="I7" t="s">
         <v>884</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>885</v>
       </c>
-      <c r="I7" t="s">
-        <v>886</v>
-      </c>
-      <c r="J7" t="s">
-        <v>887</v>
-      </c>
       <c r="K7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>324</v>
@@ -7961,38 +8487,38 @@
         <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="K12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>467</v>
@@ -8004,173 +8530,173 @@
         <v>465</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>883</v>
-      </c>
       <c r="K14" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>901</v>
-      </c>
       <c r="K18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G20" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K21" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>267</v>
@@ -8179,201 +8705,199 @@
         <v>265</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G22" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>910</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>911</v>
-      </c>
       <c r="K22" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C23" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="F23" t="s">
+        <v>835</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="K23" t="s">
         <v>921</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>914</v>
-      </c>
-      <c r="F23" t="s">
-        <v>837</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="K23" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F26" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G26" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>897</v>
-      </c>
       <c r="K26" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="F27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="F27" t="s">
-        <v>837</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>853</v>
-      </c>
       <c r="K27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="F28" t="s">
         <v>835</v>
       </c>
-      <c r="F28" t="s">
-        <v>837</v>
-      </c>
       <c r="G28" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K29" t="s">
-        <v>924</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>989</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
@@ -10558,8 +11082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10630,8 +11154,12 @@
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>277</v>
+      <c r="B4" s="21"/>
+      <c r="C4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10730,8 +11258,9 @@
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>277</v>
+      <c r="B9" s="21"/>
+      <c r="C9" s="2" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -10888,7 +11417,7 @@
         <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>248</v>
@@ -10908,7 +11437,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -10938,8 +11467,12 @@
       <c r="A20" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="64" t="s">
-        <v>277</v>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10947,22 +11480,22 @@
         <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11187,8 +11720,12 @@
       <c r="A32" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>277</v>
+      <c r="B32" s="21"/>
+      <c r="C32" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11218,15 +11755,22 @@
       <c r="A34" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="64" t="s">
-        <v>277</v>
+      <c r="B34" s="21"/>
+      <c r="C34" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="21" t="s">
         <v>277</v>
       </c>
     </row>
@@ -11297,7 +11841,7 @@
       <c r="A39" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="21" t="s">
         <v>277</v>
       </c>
     </row>
@@ -11328,8 +11872,14 @@
       <c r="A41" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B41" s="64" t="s">
-        <v>277</v>
+      <c r="B41" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -11360,22 +11910,22 @@
         <v>485</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12886,8 +13436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA537C7-CB3B-4A0A-8712-07B8CA5400F7}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12924,44 +13474,69 @@
       <c r="A2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>987</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>946</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>277</v>
+      <c r="B4" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>990</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7CE76-F27D-4EFC-B8A6-4C20862DA7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF807A0-BE19-4C1B-A97E-574F30A4E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1092">
   <si>
     <t>Joker</t>
   </si>
@@ -1173,9 +1173,6 @@
     <t>X3, −X0.001</t>
   </si>
   <si>
-    <t>10 hands, 1 retrig</t>
-  </si>
-  <si>
     <t>1 retrig</t>
   </si>
   <si>
@@ -1194,21 +1191,6 @@
     <t>6 retrig</t>
   </si>
   <si>
-    <t>20 hands, 3 retrig</t>
-  </si>
-  <si>
-    <t>15 hands, 2 retrig</t>
-  </si>
-  <si>
-    <t>25 hands, 4 retrig</t>
-  </si>
-  <si>
-    <t>30 hands, 5 retrig</t>
-  </si>
-  <si>
-    <t>35 hands, 6 retrig</t>
-  </si>
-  <si>
     <t>X0.55</t>
   </si>
   <si>
@@ -1434,18 +1416,6 @@
     <t>X5.25</t>
   </si>
   <si>
-    <t>+320</t>
-  </si>
-  <si>
-    <t>+355</t>
-  </si>
-  <si>
-    <t>+390</t>
-  </si>
-  <si>
-    <t>+425</t>
-  </si>
-  <si>
     <t>+2 hs</t>
   </si>
   <si>
@@ -1519,21 +1489,6 @@
   </si>
   <si>
     <t>X3; 16 enh</t>
-  </si>
-  <si>
-    <t>X3.25; 14 enh</t>
-  </si>
-  <si>
-    <t>X3.5; 12 enh</t>
-  </si>
-  <si>
-    <t>X3.75; 10 enh</t>
-  </si>
-  <si>
-    <t>X4; 8 enh</t>
-  </si>
-  <si>
-    <t>X4.25; 6 enh</t>
   </si>
   <si>
     <t>1 level</t>
@@ -1595,20 +1550,6 @@
         <family val="2"/>
       </rPr>
       <t>−2 hs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+285; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF18D660"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>−1 hs</t>
     </r>
   </si>
   <si>
@@ -2073,106 +2014,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> +4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2598EF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+25;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFF5657D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2598EF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+40; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFF5657D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2598EF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+65;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFF5657D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2598EF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+70;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFF5657D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2598EF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+85;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFF5657D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +9</t>
     </r>
   </si>
   <si>
@@ -3322,24 +3163,6 @@
     <t>Normal Spectral</t>
   </si>
   <si>
-    <t>2 Vouc, 20% off</t>
-  </si>
-  <si>
-    <t>1 Vouc, 0% off</t>
-  </si>
-  <si>
-    <t>3 Vouc, 40% off</t>
-  </si>
-  <si>
-    <t>4 Vouc, 60% off</t>
-  </si>
-  <si>
-    <t>5 Vouc, 80% off</t>
-  </si>
-  <si>
-    <t>6 Vouc, 100% off</t>
-  </si>
-  <si>
     <t>−0 blind level</t>
   </si>
   <si>
@@ -3376,12 +3199,6 @@
     <t>−$7; 6X slower</t>
   </si>
   <si>
-    <t>3 card, seal</t>
-  </si>
-  <si>
-    <t>3 card, edition</t>
-  </si>
-  <si>
     <t>1 in 1.33 neg</t>
   </si>
   <si>
@@ -3596,6 +3413,282 @@
   </si>
   <si>
     <t>Spec X5</t>
+  </si>
+  <si>
+    <t>X2.5; X1.5 Neg</t>
+  </si>
+  <si>
+    <t>X5; X2 Neg</t>
+  </si>
+  <si>
+    <t>X3; X2 Neg</t>
+  </si>
+  <si>
+    <t>X3.5; X2.5 Neg</t>
+  </si>
+  <si>
+    <t>X4 Edition; X1</t>
+  </si>
+  <si>
+    <t>X2 Edition; X1</t>
+  </si>
+  <si>
+    <t>X6; X3 Neg</t>
+  </si>
+  <si>
+    <t>X7; X4 Neg</t>
+  </si>
+  <si>
+    <t>X8; X5 Neg</t>
+  </si>
+  <si>
+    <t>X9; X6 Neg</t>
+  </si>
+  <si>
+    <t>X4; X3 Neg</t>
+  </si>
+  <si>
+    <t>X4.5; X3.5 Neg</t>
+  </si>
+  <si>
+    <t>+3 shop</t>
+  </si>
+  <si>
+    <t>+4 shop</t>
+  </si>
+  <si>
+    <t>+5 shop</t>
+  </si>
+  <si>
+    <t>3 card; incr/decr</t>
+  </si>
+  <si>
+    <t>4 card; incr/decr</t>
+  </si>
+  <si>
+    <t>5 card; incr/decr</t>
+  </si>
+  <si>
+    <t>Consum Edi 8%</t>
+  </si>
+  <si>
+    <t>1 in 15 duplicate</t>
+  </si>
+  <si>
+    <t>1 in 10 duplicate</t>
+  </si>
+  <si>
+    <t>1 copy, leftmost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+290; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF18D660"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>−1 hs</t>
+    </r>
+  </si>
+  <si>
+    <t>+330</t>
+  </si>
+  <si>
+    <t>+370</t>
+  </si>
+  <si>
+    <t>+410</t>
+  </si>
+  <si>
+    <t>+450</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2598EF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+20;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF5657D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2598EF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">+30; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF5657D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2598EF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+40;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF5657D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2598EF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+50;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF5657D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2598EF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+60;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF5657D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +9</t>
+    </r>
+  </si>
+  <si>
+    <t>12% Enh</t>
+  </si>
+  <si>
+    <t>36 / 14 / 5% Seal</t>
+  </si>
+  <si>
+    <t>48 / 21 / 10</t>
+  </si>
+  <si>
+    <t>60 / 28 / 15</t>
+  </si>
+  <si>
+    <t>Shop slot for playing cards, playing cards free and guaranteed Enh, Edition, Seal</t>
+  </si>
+  <si>
+    <t>X0.15 per enh</t>
+  </si>
+  <si>
+    <t>X0.2 per enh</t>
+  </si>
+  <si>
+    <t>X0.25 per enh</t>
+  </si>
+  <si>
+    <t>X0.3 per enh</t>
+  </si>
+  <si>
+    <t>X0.35 per enh</t>
+  </si>
+  <si>
+    <t>1 in 1; 3 level</t>
+  </si>
+  <si>
+    <t>1 in 1; 2 level</t>
+  </si>
+  <si>
+    <t>30 hands; 5 retrig</t>
+  </si>
+  <si>
+    <t>35 hands; 6 retrig</t>
+  </si>
+  <si>
+    <t>25 hands; 4 retrig</t>
+  </si>
+  <si>
+    <t>20 hands; 3 retrig</t>
+  </si>
+  <si>
+    <t>15 hands; 2 retrig</t>
+  </si>
+  <si>
+    <t>10 hands; 1 retrig</t>
+  </si>
+  <si>
+    <t>3 card; edition</t>
+  </si>
+  <si>
+    <t>3 card; seal</t>
+  </si>
+  <si>
+    <t>1 Vouc; 0% off</t>
+  </si>
+  <si>
+    <t>2 Vouc; 20% off</t>
+  </si>
+  <si>
+    <t>3 Vouc; 40% off</t>
+  </si>
+  <si>
+    <t>4 Vouc; 60% off</t>
+  </si>
+  <si>
+    <t>5 Vouc; 80% off</t>
+  </si>
+  <si>
+    <t>6 Vouc; 100% off</t>
+  </si>
+  <si>
+    <t>24% Enh; 7% Edi</t>
+  </si>
+  <si>
+    <t>4 lvl; any discard</t>
   </si>
 </sst>
 </file>
@@ -3609,7 +3702,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3702,13 +3795,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF2598EF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3730,7 +3816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3918,8 +4004,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3930,15 +4015,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF18D660"/>
+      <color rgb="FFFF832F"/>
       <color rgb="FF2598EF"/>
-      <color rgb="FF18D660"/>
       <color rgb="FF3EABD6"/>
       <color rgb="FFDB2929"/>
       <color rgb="FFB479D5"/>
       <color rgb="FFE5BB23"/>
       <color rgb="FF3D55E7"/>
       <color rgb="FFADADAD"/>
-      <color rgb="FFFF832F"/>
       <color rgb="FFF5657D"/>
     </mruColors>
   </colors>
@@ -4272,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177A944-B1D4-477E-828B-3075FE7473EB}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4285,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4748,22 +4833,22 @@
         <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,22 +5063,22 @@
         <v>337</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>662</v>
+        <v>1059</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>663</v>
+        <v>1060</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>664</v>
+        <v>1061</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>665</v>
+        <v>1062</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>666</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5044,30 +5129,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -5090,7 +5175,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>162</v>
@@ -5132,7 +5217,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5155,30 +5240,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -5193,7 +5278,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>85</v>
@@ -5201,7 +5286,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>186</v>
@@ -5219,12 +5304,12 @@
         <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>161</v>
@@ -5247,53 +5332,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5316,7 +5401,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>236</v>
@@ -5708,7 +5793,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5731,347 +5816,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>683</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>686</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>702</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>703</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>705</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>706</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>687</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>703</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>705</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>706</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>707</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>709</v>
-      </c>
       <c r="C5" s="55" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6408,7 +6493,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6504,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6442,85 +6527,145 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+        <v>724</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+        <v>725</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+        <v>726</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+        <v>727</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+        <v>728</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+        <v>729</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6543,146 +6688,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>970</v>
+        <v>1084</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>969</v>
+        <v>1085</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>971</v>
+        <v>1086</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>972</v>
+        <v>1087</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>973</v>
+        <v>1088</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>974</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>975</v>
+        <v>948</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6705,7 +6850,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6728,85 +6873,96 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="53"/>
+        <v>740</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>110</v>
@@ -6829,13 +6985,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>248</v>
@@ -6852,7 +7008,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -6875,48 +7031,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4753AC0-67C7-4681-A3DF-1999C4921B5E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7224,7 +7380,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -7246,42 +7402,42 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>769</v>
+      <c r="A2" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>770</v>
+      <c r="A3" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>771</v>
+      <c r="A4" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7303,8 +7459,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>772</v>
+      <c r="A5" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7327,134 +7483,166 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+        <v>752</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+        <v>753</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
-        <v>775</v>
+      <c r="A8" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>776</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>982</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>984</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>985</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>777</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1014</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>778</v>
+      <c r="A11" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>277</v>
+        <v>758</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
-        <v>780</v>
+      <c r="A13" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>186</v>
@@ -7476,54 +7664,54 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>781</v>
+      <c r="A14" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
-        <v>782</v>
+      <c r="A15" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
-        <v>1005</v>
+      <c r="A16" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>321</v>
@@ -7545,8 +7733,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>783</v>
+      <c r="A17" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>321</v>
@@ -7568,100 +7756,100 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>784</v>
+      <c r="A18" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>785</v>
+      <c r="A19" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>786</v>
+      <c r="A20" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
-        <v>787</v>
+      <c r="A21" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>788</v>
+      <c r="A22" s="12" t="s">
+        <v>767</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7683,8 +7871,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>789</v>
+      <c r="A23" s="12" t="s">
+        <v>768</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7706,11 +7894,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>1006</v>
+      <c r="A24" s="12" t="s">
+        <v>977</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7719,121 +7907,131 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>790</v>
+      <c r="A25" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>277</v>
+        <v>770</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="22"/>
+        <v>771</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>1068</v>
+      </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>793</v>
+      <c r="A28" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>794</v>
+      <c r="A29" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>795</v>
+      <c r="A30" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>796</v>
+      <c r="A31" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -7855,49 +8053,49 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
-        <v>797</v>
+      <c r="A32" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
-        <v>798</v>
+      <c r="A33" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8168,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7E899-5D82-4644-B2FD-C53C4652EA06}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8180,22 +8378,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -8210,269 +8408,269 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G3" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G4" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C5" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="E5" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="F5" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G5" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="H5" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="I5" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="J5" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="K5" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G6" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="H6" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="I6" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="J6" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="K6" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="F7" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G7" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="H7" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="I7" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="J7" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="K7" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="F8" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G8" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="H8" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G9" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="F10" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G10" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="F11" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="K11" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>324</v>
@@ -8487,216 +8685,216 @@
         <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G12" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="K12" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="F13" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="K13" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="F14" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="K14" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="F15" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="K15" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="F16" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="K16" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="F17" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="K17" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="F18" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="J18" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="K18" t="s">
         <v>899</v>
-      </c>
-      <c r="K18" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="F19" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="K19" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="F20" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G20" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="F21" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="K21" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>267</v>
@@ -8705,197 +8903,197 @@
         <v>265</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="F22" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="K22" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="F23" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="K23" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="E26" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="F26" t="s">
+        <v>814</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="F26" t="s">
-        <v>835</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>894</v>
-      </c>
       <c r="J26" s="21" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="K26" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="F27" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="K27" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="F28" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="K28" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="F29" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="K29" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9317,8 +9515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55EAFBD-0620-4DB6-B140-71D8A39B1CF8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9330,7 +9528,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9756,10 +9954,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>241</v>
@@ -9767,7 +9965,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>178</v>
@@ -9790,7 +9988,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>113</v>
@@ -9802,10 +10000,10 @@
         <v>117</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>241</v>
@@ -9813,45 +10011,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>186</v>
@@ -9859,30 +10057,30 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
@@ -9905,45 +10103,45 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>185</v>
@@ -9951,7 +10149,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -9963,7 +10161,7 @@
         <v>305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>178</v>
@@ -9974,7 +10172,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>178</v>
@@ -9997,7 +10195,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>221</v>
@@ -10006,21 +10204,21 @@
         <v>224</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>178</v>
@@ -10043,7 +10241,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -10055,7 +10253,7 @@
         <v>305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>178</v>
@@ -10066,30 +10264,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>490</v>
+        <v>1069</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>491</v>
+        <v>1070</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>492</v>
+        <v>1071</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>493</v>
+        <v>1072</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>494</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
@@ -10112,7 +10310,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>65</v>
@@ -10124,7 +10322,7 @@
         <v>305</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>178</v>
@@ -10135,25 +10333,25 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -10163,10 +10361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A6081-1E0B-4507-B926-A0569455F6C4}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10178,7 +10376,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10544,77 +10742,103 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>400</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>22</v>
+        <v>421</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>511</v>
+        <v>8</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>464</v>
+      <c r="B20" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10635,7 +10859,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10980,7 +11204,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11003,7 +11227,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11026,7 +11250,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11049,7 +11273,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11082,8 +11306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11095,7 +11319,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11121,10 +11345,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -11132,22 +11356,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11156,10 +11380,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -11190,22 +11414,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11236,22 +11460,22 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -11260,7 +11484,7 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -11280,10 +11504,10 @@
         <v>160</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>160</v>
+        <v>1075</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>160</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -11337,7 +11561,7 @@
         <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -11417,7 +11641,7 @@
         <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>248</v>
@@ -11437,7 +11661,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -11469,10 +11693,10 @@
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11480,22 +11704,22 @@
         <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11618,27 +11842,27 @@
         <v>338</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>374</v>
+        <v>1081</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>382</v>
+        <v>1080</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>381</v>
+        <v>1079</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>383</v>
+        <v>1078</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>384</v>
+        <v>1076</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>385</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11661,114 +11885,120 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>995</v>
+        <v>966</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>277</v>
@@ -11776,7 +12006,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>323</v>
@@ -11791,55 +12021,55 @@
         <v>326</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>277</v>
@@ -11847,7 +12077,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
@@ -11870,85 +12100,85 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>498</v>
+        <v>1091</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -11961,7 +12191,7 @@
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11973,7 +12203,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11996,11 +12226,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12009,69 +12239,69 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>231</v>
@@ -12089,322 +12319,322 @@
         <v>235</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>574</v>
+        <v>1047</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>575</v>
+        <v>1048</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>576</v>
+        <v>1049</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>247</v>
@@ -12424,19 +12654,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12804,7 +13034,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12827,279 +13057,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13449,7 +13679,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13472,145 +13702,137 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>987</v>
+        <v>1083</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>576</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>942</v>
-      </c>
       <c r="E3" s="33" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>574</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13619,192 +13841,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14132,7 +14354,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14143,7 +14365,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -14166,7 +14388,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>85</v>
@@ -14178,18 +14400,18 @@
         <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -14212,38 +14434,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>186</v>
@@ -14261,35 +14483,35 @@
         <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -14312,25 +14534,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF807A0-BE19-4C1B-A97E-574F30A4E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A308C9D-8AD4-453D-8B8D-6FD6A5412771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1087">
   <si>
     <t>Joker</t>
   </si>
@@ -1156,21 +1156,6 @@
   </si>
   <si>
     <t>X2, −X0.01</t>
-  </si>
-  <si>
-    <t>X2.2, −X0.007</t>
-  </si>
-  <si>
-    <t>X2.4, −X0.004</t>
-  </si>
-  <si>
-    <t>X2.6, −X0.001</t>
-  </si>
-  <si>
-    <t>X2.8, −X0.001</t>
-  </si>
-  <si>
-    <t>X3, −X0.001</t>
   </si>
   <si>
     <t>1 retrig</t>
@@ -4370,7 +4355,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4833,22 +4818,22 @@
         <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5063,22 +5048,22 @@
         <v>337</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,30 +5114,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -5175,7 +5160,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>162</v>
@@ -5217,7 +5202,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5240,30 +5225,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -5278,7 +5263,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>85</v>
@@ -5286,7 +5271,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>186</v>
@@ -5304,12 +5289,12 @@
         <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>161</v>
@@ -5332,53 +5317,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5401,7 +5386,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>236</v>
@@ -5793,7 +5778,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5816,347 +5801,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>679</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>680</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>681</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>682</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>681</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>682</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>684</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>685</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>682</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>684</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>685</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>686</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>688</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>689</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>690</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>691</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>690</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>691</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>697</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>698</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>699</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>700</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>701</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B9" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>697</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>698</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>699</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>700</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>701</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>702</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>703</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>698</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="56" t="s">
         <v>700</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>701</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>702</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>703</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>704</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>706</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>708</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>709</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B14" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>711</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>713</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>715</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>716</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>717</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>718</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>719</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B15" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>713</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" s="57" t="s">
         <v>717</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>718</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>720</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>721</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B16" s="57" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>714</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>716</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>718</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>719</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>720</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>721</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>722</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6493,7 +6478,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6504,7 +6489,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6527,10 +6512,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>247</v>
@@ -6550,10 +6535,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>247</v>
@@ -6573,10 +6558,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>247</v>
@@ -6596,10 +6581,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>247</v>
@@ -6619,10 +6604,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>247</v>
@@ -6642,10 +6627,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>247</v>
@@ -6665,7 +6650,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6688,146 +6673,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>1084</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>944</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>945</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>946</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>947</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>948</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>949</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>950</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>951</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>952</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>953</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>945</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>947</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>948</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>949</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>950</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>951</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>952</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>949</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>951</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>953</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>944</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>945</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>946</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>947</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>948</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>949</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>950</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>951</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>952</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>953</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6850,7 +6835,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6873,96 +6858,96 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>947</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>946</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>950</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>951</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>952</v>
-      </c>
       <c r="G17" s="45" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>940</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>110</v>
@@ -6985,13 +6970,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>248</v>
@@ -7008,7 +6993,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -7031,48 +7016,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>932</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>933</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>934</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>935</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>936</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>926</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>930</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7368,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4753AC0-67C7-4681-A3DF-1999C4921B5E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7380,7 +7365,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -7403,16 +7388,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -7420,16 +7405,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7437,7 +7422,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7460,7 +7445,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7483,149 +7468,149 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1042</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>985</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="14">
         <v>0.16</v>
@@ -7642,7 +7627,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>186</v>
@@ -7665,53 +7650,53 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>321</v>
@@ -7734,7 +7719,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>321</v>
@@ -7757,99 +7742,99 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>1023</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>1028</v>
-      </c>
       <c r="E21" s="55" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7872,7 +7857,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7895,10 +7880,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7908,53 +7893,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>979</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" s="22"/>
@@ -7962,76 +7947,76 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1000</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8054,48 +8039,48 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8378,22 +8363,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -8408,269 +8393,269 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F3" t="s">
+        <v>809</v>
+      </c>
+      <c r="G3" t="s">
         <v>814</v>
-      </c>
-      <c r="G3" t="s">
-        <v>819</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="K5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G6" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H6" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="I6" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="J6" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="K6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G7" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H7" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="I7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J7" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="K7" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F8" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G8" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H8" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G9" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F10" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G10" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="K11" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>324</v>
@@ -8685,216 +8670,216 @@
         <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G12" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="K12" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F13" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="K13" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F14" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="K14" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F15" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="K15" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F16" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="K16" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="F17" t="s">
+        <v>809</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="F17" t="s">
-        <v>814</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>841</v>
-      </c>
       <c r="K17" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F18" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="K18" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F19" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="K19" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F20" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G20" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F21" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="K21" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>267</v>
@@ -8903,197 +8888,197 @@
         <v>265</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F22" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K22" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F23" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J23" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="K23" t="s">
         <v>895</v>
-      </c>
-      <c r="K23" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F26" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="K26" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E27" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="F27" t="s">
+        <v>809</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="F27" t="s">
-        <v>814</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>824</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>829</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>830</v>
-      </c>
       <c r="K27" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F28" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="K28" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F29" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="K29" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9515,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55EAFBD-0620-4DB6-B140-71D8A39B1CF8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9528,7 +9513,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9925,19 +9910,19 @@
         <v>368</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>178</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9954,10 +9939,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>241</v>
@@ -9965,7 +9950,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>178</v>
@@ -9988,7 +9973,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>113</v>
@@ -10000,10 +9985,10 @@
         <v>117</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>241</v>
@@ -10011,45 +9996,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>186</v>
@@ -10057,30 +10042,30 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
@@ -10103,45 +10088,45 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>185</v>
@@ -10149,7 +10134,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -10161,7 +10146,7 @@
         <v>305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>178</v>
@@ -10172,7 +10157,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>178</v>
@@ -10195,7 +10180,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>221</v>
@@ -10204,21 +10189,21 @@
         <v>224</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>178</v>
@@ -10241,7 +10226,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -10253,7 +10238,7 @@
         <v>305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>178</v>
@@ -10264,30 +10249,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
@@ -10310,7 +10295,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>65</v>
@@ -10322,7 +10307,7 @@
         <v>305</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>178</v>
@@ -10333,25 +10318,25 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -10376,7 +10361,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10767,30 +10752,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -10813,25 +10798,25 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -10847,7 +10832,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10859,7 +10844,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11204,30 +11189,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11250,7 +11235,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11273,7 +11258,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11319,7 +11304,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11345,10 +11330,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -11356,22 +11341,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11380,10 +11365,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -11414,22 +11399,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11460,22 +11445,22 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -11484,7 +11469,7 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -11504,10 +11489,10 @@
         <v>160</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -11561,7 +11546,7 @@
         <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -11641,7 +11626,7 @@
         <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>248</v>
@@ -11661,7 +11646,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -11693,10 +11678,10 @@
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11704,22 +11689,22 @@
         <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11842,27 +11827,27 @@
         <v>338</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11885,120 +11870,120 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>277</v>
@@ -12006,7 +11991,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>323</v>
@@ -12021,55 +12006,55 @@
         <v>326</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>277</v>
@@ -12077,7 +12062,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
@@ -12100,85 +12085,85 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -12203,7 +12188,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12226,11 +12211,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12239,69 +12224,69 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>580</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>585</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>231</v>
@@ -12319,322 +12304,322 @@
         <v>235</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>568</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>562</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>247</v>
@@ -12654,19 +12639,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -13034,7 +13019,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13057,279 +13042,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>485</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13679,7 +13664,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13702,63 +13687,63 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>160</v>
@@ -13766,73 +13751,73 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13841,192 +13826,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>557</v>
-      </c>
       <c r="D16" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14354,7 +14339,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14365,7 +14350,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -14388,7 +14373,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>85</v>
@@ -14400,18 +14385,18 @@
         <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -14434,38 +14419,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>186</v>
@@ -14483,76 +14468,76 @@
         <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="53">
         <v>5</v>
       </c>
-      <c r="D8" s="53">
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="53">
         <v>7</v>
       </c>
-      <c r="E8" s="53">
-        <v>9</v>
-      </c>
-      <c r="F8" s="53">
-        <v>11</v>
-      </c>
-      <c r="G8" s="53">
-        <v>13</v>
+      <c r="G8" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A308C9D-8AD4-453D-8B8D-6FD6A5412771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040FAC8-327F-4C20-8BCE-A29A55A5D198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1077">
   <si>
     <t>Joker</t>
   </si>
@@ -243,9 +243,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>X1.2</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -1011,9 +1008,6 @@
     <t>+3 hand size</t>
   </si>
   <si>
-    <t>+4 hand size</t>
-  </si>
-  <si>
     <t>+1 discard</t>
   </si>
   <si>
@@ -1170,12 +1164,6 @@
     <t>4 retrig</t>
   </si>
   <si>
-    <t>5 retrig</t>
-  </si>
-  <si>
-    <t>6 retrig</t>
-  </si>
-  <si>
     <t>X0.55</t>
   </si>
   <si>
@@ -1269,9 +1257,6 @@
     <t>The Tribe</t>
   </si>
   <si>
-    <t>7 retrig</t>
-  </si>
-  <si>
     <t>Enhancement</t>
   </si>
   <si>
@@ -1303,15 +1288,6 @@
   </si>
   <si>
     <t>+125</t>
-  </si>
-  <si>
-    <t>X0.9</t>
-  </si>
-  <si>
-    <t>X1.05</t>
-  </si>
-  <si>
-    <t>X1.35</t>
   </si>
   <si>
     <t>1X sell</t>
@@ -3283,12 +3259,6 @@
     <t>Spec in Arca</t>
   </si>
   <si>
-    <t>+5 hand</t>
-  </si>
-  <si>
-    <t>+6 hand</t>
-  </si>
-  <si>
     <t>−1 Ante, −1 hand</t>
   </si>
   <si>
@@ -3464,29 +3434,6 @@
   </si>
   <si>
     <t>1 copy, leftmost</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+290; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF18D660"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>−1 hs</t>
-    </r>
-  </si>
-  <si>
-    <t>+330</t>
-  </si>
-  <si>
-    <t>+370</t>
-  </si>
-  <si>
-    <t>+410</t>
   </si>
   <si>
     <t>+450</t>
@@ -3628,21 +3575,6 @@
     <t>1 in 1; 2 level</t>
   </si>
   <si>
-    <t>30 hands; 5 retrig</t>
-  </si>
-  <si>
-    <t>35 hands; 6 retrig</t>
-  </si>
-  <si>
-    <t>25 hands; 4 retrig</t>
-  </si>
-  <si>
-    <t>20 hands; 3 retrig</t>
-  </si>
-  <si>
-    <t>15 hands; 2 retrig</t>
-  </si>
-  <si>
     <t>10 hands; 1 retrig</t>
   </si>
   <si>
@@ -3674,6 +3606,44 @@
   </si>
   <si>
     <t>4 lvl; any discard</t>
+  </si>
+  <si>
+    <t>15 hands; 1 retrig</t>
+  </si>
+  <si>
+    <t>20 hands; 2 retrig</t>
+  </si>
+  <si>
+    <t>25 hands; 2 retrig</t>
+  </si>
+  <si>
+    <t>30 hands; 3 retrig</t>
+  </si>
+  <si>
+    <t>35 hands; 3 retrig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+300; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF18D660"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>−1 hs</t>
+    </r>
+  </si>
+  <si>
+    <t>+350</t>
+  </si>
+  <si>
+    <t>+400</t>
+  </si>
+  <si>
+    <t>+500</t>
   </si>
 </sst>
 </file>
@@ -4355,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4631,30 +4601,30 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -4672,58 +4642,58 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -4746,7 +4716,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -4769,30 +4739,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4810,64 +4780,64 @@
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -4884,13 +4854,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
@@ -4907,7 +4877,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -4919,7 +4889,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
@@ -4930,7 +4900,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4948,18 +4918,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
@@ -4976,10 +4946,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -4999,33 +4969,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -5045,30 +5015,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -5080,7 +5050,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>19</v>
@@ -5091,7 +5061,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -5106,7 +5076,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>9</v>
@@ -5114,30 +5084,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -5160,10 +5130,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -5191,7 +5161,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5172,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5225,30 +5195,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -5263,44 +5233,44 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -5317,53 +5287,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5386,25 +5356,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5778,7 +5748,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5801,347 +5771,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6489,7 +6459,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6512,145 +6482,145 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="E2" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="F2" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="G2" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C3" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C5" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="E5" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="G5" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C6" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="G6" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E7" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="F7" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="G7" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6673,146 +6643,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6835,7 +6805,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6858,142 +6828,142 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B22" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="D22" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>933</v>
-      </c>
-      <c r="D22" s="60" t="s">
+      <c r="E22" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="G22" s="60" t="s">
         <v>250</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -7016,48 +6986,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7353,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4753AC0-67C7-4681-A3DF-1999C4921B5E}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7365,7 +7335,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -7388,16 +7358,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -7405,16 +7375,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7422,7 +7392,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7445,7 +7415,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7468,149 +7438,149 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1037</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="D12" s="14">
         <v>0.16</v>
@@ -7627,214 +7597,214 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>988</v>
+        <v>844</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>989</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>988</v>
+        <v>844</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>989</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F16" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7857,7 +7827,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7880,10 +7850,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7893,53 +7863,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" s="22"/>
@@ -7947,76 +7917,76 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8039,48 +8009,48 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8363,22 +8333,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -8393,692 +8363,692 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G3" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C5" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="F5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G5" t="s">
+        <v>808</v>
+      </c>
+      <c r="H5" t="s">
         <v>809</v>
       </c>
-      <c r="G5" t="s">
-        <v>816</v>
-      </c>
-      <c r="H5" t="s">
-        <v>817</v>
-      </c>
       <c r="I5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="J5" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K5" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="H6" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="I6" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="J6" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="K6" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="F7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G7" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="H7" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="I7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="J7" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="K7" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="F8" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G8" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="H8" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G9" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F10" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G10" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="F11" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="K11" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G12" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="K12" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F13" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>840</v>
-      </c>
       <c r="K13" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="F14" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="K14" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F15" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="K15" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="K16" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F17" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="K17" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F18" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="K18" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F19" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="K19" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F20" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G20" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="F21" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="K21" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="F22" t="s">
         <v>801</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="F22" t="s">
-        <v>809</v>
-      </c>
       <c r="G22" s="21" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="K22" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F23" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="K23" t="s">
         <v>887</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>888</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="K23" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F26" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K26" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F27" t="s">
+        <v>801</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>824</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>825</v>
-      </c>
       <c r="K27" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F28" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="K28" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F29" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="K29" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9501,7 +9471,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9513,7 +9483,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9542,801 +9512,801 @@
         <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="D8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="D20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>418</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="D29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="D31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -10349,7 +10319,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10361,7 +10331,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10499,10 +10469,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>49</v>
@@ -10511,7 +10481,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>51</v>
@@ -10522,10 +10492,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>49</v>
@@ -10534,7 +10504,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>51</v>
@@ -10545,30 +10515,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
@@ -10577,47 +10547,47 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
@@ -10637,7 +10607,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
@@ -10646,7 +10616,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -10660,7 +10630,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -10683,22 +10653,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>50</v>
@@ -10706,10 +10676,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
@@ -10729,7 +10699,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
@@ -10741,7 +10711,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
@@ -10752,30 +10722,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -10798,25 +10768,25 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -10844,7 +10814,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10867,30 +10837,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10913,30 +10883,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -10959,7 +10929,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -10982,7 +10952,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -11005,7 +10975,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -11028,30 +10998,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -11074,30 +11044,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -11120,7 +11090,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -11143,7 +11113,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -11166,30 +11136,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11212,7 +11182,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11235,7 +11205,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11258,7 +11228,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11291,8 +11261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11304,7 +11274,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11327,516 +11297,516 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1071</v>
@@ -11847,7 +11817,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11870,300 +11840,300 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -12188,7 +12158,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12211,11 +12181,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12224,434 +12194,434 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>235</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="G22" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -13019,7 +12989,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13042,279 +13012,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13664,7 +13634,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13687,137 +13657,137 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13826,192 +13796,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>588</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>596</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>554</v>
-      </c>
       <c r="F15" s="33" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>547</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14350,7 +14320,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -14373,30 +14343,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>612</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>620</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -14419,84 +14389,84 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -14519,25 +14489,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040FAC8-327F-4C20-8BCE-A29A55A5D198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE3A32-8DA9-48EB-8E7F-09050AFDDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -11261,7 +11261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -12145,8 +12145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1669CD47-293C-430B-B754-5EC6727C62D4}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE3A32-8DA9-48EB-8E7F-09050AFDDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A2FEAD-FC35-4EF6-B68C-B3C9F17E000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="11" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1080">
   <si>
     <t>Joker</t>
   </si>
@@ -246,9 +246,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>X1.6</t>
-  </si>
-  <si>
     <t>X1.8</t>
   </si>
   <si>
@@ -1102,9 +1099,6 @@
   </si>
   <si>
     <t>1 in 1.25; 4 Tar</t>
-  </si>
-  <si>
-    <t>$5; any discard</t>
   </si>
   <si>
     <t>$7; any discard</t>
@@ -3644,6 +3638,21 @@
   </si>
   <si>
     <t>+500</t>
+  </si>
+  <si>
+    <t>X1.65</t>
+  </si>
+  <si>
+    <t>X1.95</t>
+  </si>
+  <si>
+    <t>X2.15</t>
+  </si>
+  <si>
+    <t>X2.45</t>
+  </si>
+  <si>
+    <t>X2.6</t>
   </si>
 </sst>
 </file>
@@ -4312,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177A944-B1D4-477E-828B-3075FE7473EB}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4325,7 +4334,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -4601,30 +4610,30 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -4642,58 +4651,58 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -4716,7 +4725,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -4739,30 +4748,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4780,64 +4789,64 @@
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -4854,13 +4863,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
@@ -4877,7 +4886,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -4889,7 +4898,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
@@ -4900,7 +4909,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4918,18 +4927,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
@@ -4946,10 +4955,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -4969,33 +4978,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -5015,30 +5024,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -5050,7 +5059,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>19</v>
@@ -5061,7 +5070,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -5076,7 +5085,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>9</v>
@@ -5084,30 +5093,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="F34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -5130,10 +5139,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -5172,7 +5181,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5195,30 +5204,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -5233,44 +5242,44 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -5287,53 +5296,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>569</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5356,25 +5365,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5748,7 +5757,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -5771,347 +5780,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="E2" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="G2" s="54" t="s">
         <v>669</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="E3" s="54" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>670</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>671</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>672</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="E4" s="54" t="s">
         <v>670</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="F4" s="54" t="s">
         <v>671</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>672</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>673</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="E5" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="F5" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="G5" s="55" t="s">
         <v>678</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>679</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="E6" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="F6" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="G6" s="55" t="s">
         <v>680</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="E7" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="F7" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="G7" s="55" t="s">
         <v>681</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>684</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="E8" s="56" t="s">
         <v>685</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="F8" s="56" t="s">
         <v>686</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="G8" s="56" t="s">
         <v>687</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>688</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B9" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="E9" s="56" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="F9" s="56" t="s">
         <v>688</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="G9" s="56" t="s">
         <v>689</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>690</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>687</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="E10" s="56" t="s">
         <v>688</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="F10" s="56" t="s">
         <v>689</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="G10" s="56" t="s">
         <v>690</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>691</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>696</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="F12" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>698</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>699</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B14" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>702</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>703</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>704</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="G14" s="57" t="s">
         <v>705</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>706</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B15" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>703</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>704</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>705</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="G15" s="57" t="s">
         <v>707</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>708</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B16" s="57" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>705</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>707</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="G16" s="57" t="s">
         <v>708</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>709</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6447,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240DC4-48F2-4250-90A0-94515EDF05F3}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6459,7 +6468,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -6482,145 +6491,145 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="E2" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="F2" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="G2" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C3" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C5" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="E5" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="G5" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="G6" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E7" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="F7" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="G7" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6643,146 +6652,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>1060</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="E9" s="63" t="s">
         <v>1061</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="F9" s="63" t="s">
         <v>1062</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="G9" s="63" t="s">
         <v>1063</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>934</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>935</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>936</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="E11" s="61" t="s">
         <v>937</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="F11" s="61" t="s">
         <v>938</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="G11" s="61" t="s">
         <v>939</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>940</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>934</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>936</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>937</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="F12" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>939</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>940</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>936</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="E13" s="36" t="s">
         <v>937</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="F13" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="G13" s="36" t="s">
         <v>939</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>940</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>935</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>936</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="E14" s="62" t="s">
         <v>937</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="F14" s="62" t="s">
         <v>938</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="G14" s="62" t="s">
         <v>939</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>940</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6805,7 +6814,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6828,142 +6837,142 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D17" s="45" t="s">
+        <v>935</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>936</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>937</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="G17" s="45" t="s">
         <v>938</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>939</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>1029</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>930</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B22" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>923</v>
+      </c>
+      <c r="D22" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>925</v>
-      </c>
-      <c r="D22" s="60" t="s">
+      <c r="E22" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="G22" s="60" t="s">
         <v>249</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -6986,48 +6995,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>918</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="E24" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="F24" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="G24" s="37" t="s">
         <v>922</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>923</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>916</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7335,7 +7344,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -7358,16 +7367,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>960</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>962</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -7375,16 +7384,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>960</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>962</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7392,7 +7401,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7415,7 +7424,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7438,149 +7447,149 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1019</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>944</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>944</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>946</v>
       </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>975</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D12" s="14">
         <v>0.16</v>
@@ -7597,214 +7606,214 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>841</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>841</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>994</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>996</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>997</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>998</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>999</v>
-      </c>
       <c r="G18" s="29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>1003</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>1005</v>
-      </c>
       <c r="G19" s="29" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>1007</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="D20" s="55" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>1009</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>1011</v>
-      </c>
       <c r="F20" s="55" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C21" s="55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E21" s="55" t="s">
         <v>1012</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>1014</v>
-      </c>
       <c r="F21" s="55" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7827,7 +7836,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7850,10 +7859,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7863,53 +7872,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>969</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" s="22"/>
@@ -7917,76 +7926,76 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8009,48 +8018,48 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8321,7 +8330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7E899-5D82-4644-B2FD-C53C4652EA06}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8333,22 +8342,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
@@ -8363,692 +8372,692 @@
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>800</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>801</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>802</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>803</v>
       </c>
-      <c r="I2" s="58" t="s">
-        <v>804</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>805</v>
-      </c>
       <c r="K2" s="58" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H5" t="s">
+        <v>807</v>
+      </c>
+      <c r="I5" t="s">
         <v>808</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>809</v>
       </c>
-      <c r="I5" t="s">
-        <v>810</v>
-      </c>
-      <c r="J5" t="s">
-        <v>811</v>
-      </c>
       <c r="K5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G6" t="s">
+        <v>864</v>
+      </c>
+      <c r="H6" t="s">
+        <v>865</v>
+      </c>
+      <c r="I6" t="s">
         <v>866</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>867</v>
       </c>
-      <c r="I6" t="s">
-        <v>868</v>
-      </c>
-      <c r="J6" t="s">
-        <v>869</v>
-      </c>
       <c r="K6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>852</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>853</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>854</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>855</v>
-      </c>
       <c r="E7" s="59" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G7" t="s">
+        <v>846</v>
+      </c>
+      <c r="H7" t="s">
+        <v>847</v>
+      </c>
+      <c r="I7" t="s">
         <v>848</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>849</v>
       </c>
-      <c r="I7" t="s">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>851</v>
-      </c>
       <c r="K7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G8" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="K13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>845</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>847</v>
-      </c>
       <c r="K14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K16" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K17" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F18" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>865</v>
-      </c>
       <c r="K18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K19" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F20" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F21" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G22" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>874</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>875</v>
-      </c>
       <c r="K22" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C23" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="F23" t="s">
+        <v>799</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="K23" t="s">
         <v>885</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>883</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="F23" t="s">
-        <v>801</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>880</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="K23" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F26" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G26" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>860</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>861</v>
-      </c>
       <c r="K26" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="F27" t="s">
+        <v>799</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>814</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>813</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="F27" t="s">
-        <v>801</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>816</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>817</v>
-      </c>
       <c r="K27" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="F28" t="s">
         <v>799</v>
       </c>
-      <c r="F28" t="s">
-        <v>801</v>
-      </c>
       <c r="G28" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K29" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9470,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55EAFBD-0620-4DB6-B140-71D8A39B1CF8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9483,7 +9492,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -9512,499 +9521,499 @@
         <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="D8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="D10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>1076</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="D20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>64</v>
@@ -10012,301 +10021,301 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>300</v>
+        <v>1077</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>1078</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>1079</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="D29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="D31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>1052</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -10331,7 +10340,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10469,10 +10478,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>49</v>
@@ -10481,7 +10490,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>51</v>
@@ -10492,10 +10501,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>49</v>
@@ -10504,7 +10513,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>51</v>
@@ -10515,30 +10524,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
@@ -10547,47 +10556,47 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
@@ -10607,7 +10616,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
@@ -10616,7 +10625,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -10630,7 +10639,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -10653,22 +10662,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>50</v>
@@ -10676,10 +10685,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
@@ -10699,7 +10708,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
@@ -10711,7 +10720,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
@@ -10722,30 +10731,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -10768,25 +10777,25 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>1073</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>1074</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -10802,7 +10811,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10814,7 +10823,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -10837,30 +10846,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10883,30 +10892,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -10929,30 +10938,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
-        <v>14</v>
-      </c>
       <c r="F6" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -10975,7 +10984,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -10998,30 +11007,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -11044,30 +11053,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -11090,7 +11099,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -11113,7 +11122,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -11136,30 +11145,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11182,7 +11191,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11205,7 +11214,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11228,7 +11237,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11274,7 +11283,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -11297,527 +11306,527 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11840,300 +11849,300 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>953</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E44" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -12145,7 +12154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1669CD47-293C-430B-B754-5EC6727C62D4}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -12158,7 +12167,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -12181,11 +12190,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12194,434 +12203,434 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>570</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>572</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>234</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>558</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="E12" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="G12" s="31" t="s">
         <v>563</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>1032</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>1034</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="E14" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>552</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>547</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>547</v>
-      </c>
       <c r="E19" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>547</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>547</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="G22" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>547</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12989,7 +12998,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13012,279 +13021,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>472</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="E9" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="F12" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13634,7 +13643,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -13657,137 +13666,137 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>908</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>910</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>584</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>598</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>600</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13796,192 +13805,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>594</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="F15" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="F16" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="F17" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>476</v>
-      </c>
       <c r="G17" s="33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>471</v>
-      </c>
       <c r="E19" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>577</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14320,7 +14329,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
@@ -14343,30 +14352,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -14389,84 +14398,84 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -14489,25 +14498,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>642</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>643</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A2FEAD-FC35-4EF6-B68C-B3C9F17E000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CBAE6-508D-44A9-BB86-56FAE39CFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="11" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -6456,7 +6456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240DC4-48F2-4250-90A0-94515EDF05F3}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -11270,8 +11270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CBAE6-508D-44A9-BB86-56FAE39CFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E5722-D7E9-4231-A5FA-66557DDAA213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1082">
   <si>
     <t>Joker</t>
   </si>
@@ -132,9 +132,6 @@
     <t>+24</t>
   </si>
   <si>
-    <t>+27</t>
-  </si>
-  <si>
     <t>+13</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>+32</t>
   </si>
   <si>
-    <t>+36</t>
-  </si>
-  <si>
     <t>+40</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>+160</t>
   </si>
   <si>
-    <t>+180</t>
-  </si>
-  <si>
     <t>+200</t>
   </si>
   <si>
@@ -333,18 +324,6 @@
     <t>+0 to +23</t>
   </si>
   <si>
-    <t>+3 to +26</t>
-  </si>
-  <si>
-    <t>+6 to +29</t>
-  </si>
-  <si>
-    <t>+9 to +32</t>
-  </si>
-  <si>
-    <t>+12 to +35</t>
-  </si>
-  <si>
     <t>+15 to +38</t>
   </si>
   <si>
@@ -483,21 +462,6 @@
     <t>+15; 1 in 6</t>
   </si>
   <si>
-    <t>+18; 1 in 5</t>
-  </si>
-  <si>
-    <t>+21; 1 in 4</t>
-  </si>
-  <si>
-    <t>+24; 1 in 3</t>
-  </si>
-  <si>
-    <t>+30; 1 in 1</t>
-  </si>
-  <si>
-    <t>+27; 1 in 2</t>
-  </si>
-  <si>
     <t>1 in 2; $1</t>
   </si>
   <si>
@@ -612,19 +576,7 @@
     <t>X2.25</t>
   </si>
   <si>
-    <t>+120; −4</t>
-  </si>
-  <si>
     <t>+100; −5</t>
-  </si>
-  <si>
-    <t>+140; −3</t>
-  </si>
-  <si>
-    <t>+160; −2</t>
-  </si>
-  <si>
-    <t>+180; −1</t>
   </si>
   <si>
     <t>+200; −1</t>
@@ -3430,9 +3382,6 @@
     <t>1 copy, leftmost</t>
   </si>
   <si>
-    <t>+450</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3617,8 +3566,80 @@
     <t>35 hands; 3 retrig</t>
   </si>
   <si>
+    <t>+400</t>
+  </si>
+  <si>
+    <t>X1.65</t>
+  </si>
+  <si>
+    <t>X1.95</t>
+  </si>
+  <si>
+    <t>X2.15</t>
+  </si>
+  <si>
+    <t>X2.45</t>
+  </si>
+  <si>
+    <t>X2.6</t>
+  </si>
+  <si>
+    <t>+20; 1 in 5</t>
+  </si>
+  <si>
+    <t>+25; 1 in 4</t>
+  </si>
+  <si>
+    <t>+30; 1 in 3</t>
+  </si>
+  <si>
+    <t>+35; 1 in 2</t>
+  </si>
+  <si>
+    <t>+40; 1 in 1</t>
+  </si>
+  <si>
+    <t>+5 to +28</t>
+  </si>
+  <si>
+    <t>+10 to +33</t>
+  </si>
+  <si>
+    <t>+20 to +43</t>
+  </si>
+  <si>
+    <t>+25 to +48</t>
+  </si>
+  <si>
+    <t>+170</t>
+  </si>
+  <si>
+    <t>+220</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>+230</t>
+  </si>
+  <si>
+    <t>+55</t>
+  </si>
+  <si>
+    <t>+125; −4</t>
+  </si>
+  <si>
+    <t>+150; −3</t>
+  </si>
+  <si>
+    <t>+175; −2</t>
+  </si>
+  <si>
+    <t>+225; −1</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">+300; </t>
+      <t xml:space="preserve">+325; </t>
     </r>
     <r>
       <rPr>
@@ -3631,28 +3652,13 @@
     </r>
   </si>
   <si>
-    <t>+350</t>
-  </si>
-  <si>
-    <t>+400</t>
-  </si>
-  <si>
-    <t>+500</t>
-  </si>
-  <si>
-    <t>X1.65</t>
-  </si>
-  <si>
-    <t>X1.95</t>
-  </si>
-  <si>
-    <t>X2.15</t>
-  </si>
-  <si>
-    <t>X2.45</t>
-  </si>
-  <si>
-    <t>X2.6</t>
+    <t>+475</t>
+  </si>
+  <si>
+    <t>+550</t>
+  </si>
+  <si>
+    <t>+625</t>
   </si>
 </sst>
 </file>
@@ -3979,9 +3985,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2598EF"/>
       <color rgb="FF18D660"/>
       <color rgb="FFFF832F"/>
-      <color rgb="FF2598EF"/>
       <color rgb="FF3EABD6"/>
       <color rgb="FFDB2929"/>
       <color rgb="FFB479D5"/>
@@ -4319,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177A944-B1D4-477E-828B-3075FE7473EB}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4334,25 +4340,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4363,19 +4369,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4478,19 +4484,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4501,19 +4507,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4524,19 +4530,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>630</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4547,19 +4553,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4570,139 +4576,139 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>630</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>1065</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>1066</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>97</v>
+        <v>1067</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -4717,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>24</v>
@@ -4725,7 +4731,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -4748,30 +4754,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>1060</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
+        <v>1061</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>146</v>
+        <v>1062</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>148</v>
+        <v>1063</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>147</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4789,64 +4795,64 @@
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -4863,13 +4869,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
@@ -4886,7 +4892,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -4898,18 +4904,18 @@
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4927,18 +4933,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
@@ -4955,10 +4961,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -4978,33 +4984,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -5024,143 +5030,121 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>9</v>
+        <v>359</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>414</v>
+        <v>435</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5181,53 +5165,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -5239,47 +5223,47 @@
         <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -5296,53 +5280,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5365,25 +5349,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5757,370 +5741,370 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>665</v>
-      </c>
       <c r="D2" s="54" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>666</v>
-      </c>
       <c r="C3" s="54" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>667</v>
-      </c>
       <c r="C4" s="54" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,168 +6452,168 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6652,146 +6636,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6814,7 +6798,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6837,142 +6821,142 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -6995,48 +6979,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7344,39 +7328,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -7384,16 +7368,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7401,7 +7385,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7424,7 +7408,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7447,149 +7431,149 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>976</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>992</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="D12" s="14">
         <v>0.16</v>
@@ -7606,214 +7590,214 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7836,7 +7820,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7859,10 +7843,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7872,53 +7856,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" s="22"/>
@@ -7926,76 +7910,76 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8018,48 +8002,48 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8342,722 +8326,722 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G3" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G4" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="C5" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="D5" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="E5" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="F5" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G5" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="H5" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="I5" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="J5" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="K5" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G6" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="H6" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="I6" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="K6" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="F7" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G7" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="H7" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="I7" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="J7" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="K7" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="F8" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G8" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="H8" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G9" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="F10" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G10" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="F11" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="K11" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G12" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="K12" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F13" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="K13" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="F14" t="s">
         <v>783</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="F14" t="s">
-        <v>799</v>
-      </c>
       <c r="G14" s="21" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="K14" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F15" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="K15" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="F16" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="K16" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="K17" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F18" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="K18" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F19" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="K19" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F20" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G20" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="F21" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="K21" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="F22" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="K22" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="F23" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="K23" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F26" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="K26" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>813</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>812</v>
-      </c>
       <c r="D27" s="22" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="F27" t="s">
+        <v>783</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>814</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>815</v>
-      </c>
       <c r="K27" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F28" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="K28" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="F29" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="K29" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9492,830 +9476,830 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10325,10 +10309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A6081-1E0B-4507-B926-A0569455F6C4}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10340,263 +10324,263 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>57</v>
+        <v>1069</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>60</v>
+        <v>628</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>61</v>
+        <v>1070</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>62</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>61</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>60</v>
+        <v>628</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>61</v>
+        <v>1070</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>62</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>61</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>594</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>54</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>1073</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>187</v>
+        <v>1074</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>189</v>
+        <v>1075</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>190</v>
+        <v>1076</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>192</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
@@ -10616,79 +10600,79 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>49</v>
+        <v>1073</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>50</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
@@ -10708,7 +10692,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
@@ -10720,41 +10704,41 @@
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -10763,7 +10747,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>22</v>
@@ -10772,33 +10756,42 @@
         <v>26</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1037</v>
+        <v>1080</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1074</v>
-      </c>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B16" numberStoredAsText="1"/>
@@ -10823,53 +10816,53 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10892,30 +10885,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -10938,7 +10931,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -10961,7 +10954,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -10984,7 +10977,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -11007,30 +11000,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -11053,30 +11046,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -11099,7 +11092,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -11122,7 +11115,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -11145,7 +11138,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -11154,21 +11147,21 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11191,7 +11184,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11214,7 +11207,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11237,7 +11230,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11270,7 +11263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B788F6-59A9-44CE-B687-94279AF0D375}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -11283,550 +11276,550 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11849,300 +11842,300 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -12167,34 +12160,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12203,434 +12196,434 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12998,302 +12991,302 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13643,160 +13636,160 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>543</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13805,192 +13798,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14329,53 +14322,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -14398,84 +14391,84 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -14498,25 +14491,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/table of levels.xlsx
+++ b/table of levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valky\AppData\Roaming\Balatro\Mods\upgrademod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E5722-D7E9-4231-A5FA-66557DDAA213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5394D-19B8-4384-B7F7-DE5BD1755F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{61FB6368-C9E5-4A96-AA5B-F7BF30B3F17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1078">
   <si>
     <t>Joker</t>
   </si>
@@ -201,9 +201,6 @@
     <t>+70</t>
   </si>
   <si>
-    <t>+120</t>
-  </si>
-  <si>
     <t>+100</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>+130</t>
-  </si>
-  <si>
-    <t>+150</t>
   </si>
   <si>
     <t>+140</t>
@@ -1871,9 +1865,6 @@
     <t>X3.25; 1 in 14</t>
   </si>
   <si>
-    <t>+175</t>
-  </si>
-  <si>
     <t>Edition&amp;Seal</t>
   </si>
   <si>
@@ -1899,9 +1890,6 @@
   </si>
   <si>
     <t>Gold Seal</t>
-  </si>
-  <si>
-    <t>+85</t>
   </si>
   <si>
     <r>
@@ -2206,9 +2194,6 @@
     <t>+190</t>
   </si>
   <si>
-    <t>+225</t>
-  </si>
-  <si>
     <t>+26</t>
   </si>
   <si>
@@ -3380,6 +3365,9 @@
   </si>
   <si>
     <t>1 copy, leftmost</t>
+  </si>
+  <si>
+    <t>+450</t>
   </si>
   <si>
     <r>
@@ -3566,9 +3554,6 @@
     <t>35 hands; 3 retrig</t>
   </si>
   <si>
-    <t>+400</t>
-  </si>
-  <si>
     <t>X1.65</t>
   </si>
   <si>
@@ -3638,8 +3623,11 @@
     <t>+225; −1</t>
   </si>
   <si>
+    <t>+550</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">+325; </t>
+      <t xml:space="preserve">+350; </t>
     </r>
     <r>
       <rPr>
@@ -3652,13 +3640,13 @@
     </r>
   </si>
   <si>
-    <t>+475</t>
-  </si>
-  <si>
-    <t>+550</t>
-  </si>
-  <si>
-    <t>+625</t>
+    <t>+650</t>
+  </si>
+  <si>
+    <t>+750</t>
+  </si>
+  <si>
+    <t>+210</t>
   </si>
 </sst>
 </file>
@@ -4327,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177A944-B1D4-477E-828B-3075FE7473EB}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4340,7 +4328,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -4539,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4585,10 +4573,10 @@
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4602,44 +4590,44 @@
         <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -4651,10 +4639,10 @@
         <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>47</v>
@@ -4662,53 +4650,53 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -4731,7 +4719,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -4754,30 +4742,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4795,64 +4783,64 @@
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -4869,13 +4857,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
@@ -4892,7 +4880,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -4904,7 +4892,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>19</v>
@@ -4915,7 +4903,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4933,18 +4921,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
@@ -4961,10 +4949,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -4984,33 +4972,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -5030,30 +5018,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>6</v>
@@ -5068,7 +5056,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>9</v>
@@ -5076,30 +5064,30 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="F33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>27</v>
@@ -5122,10 +5110,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -5154,7 +5142,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5165,7 +5153,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -5188,82 +5176,82 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>613</v>
+        <v>52</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>627</v>
+        <v>1064</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>628</v>
+        <v>1077</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>629</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>630</v>
+        <v>78</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -5280,53 +5268,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>551</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -5349,25 +5337,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5741,7 +5729,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -5764,347 +5752,347 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>648</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>649</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>650</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>650</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>654</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>651</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>654</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>657</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>658</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>660</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>659</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>660</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>660</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>662</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>663</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>664</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>666</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>667</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>669</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B9" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>668</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>669</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>672</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" s="56" t="s">
         <v>669</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>672</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>675</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>677</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>678</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B14" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>681</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>684</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>685</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>686</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>687</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>688</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B15" s="57" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="G15" s="57" t="s">
         <v>686</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>687</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>688</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>689</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>690</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B16" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>687</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>688</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>689</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>690</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>691</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6452,7 +6440,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -6475,145 +6463,145 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="F2" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="G2" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C3" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="F4" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C5" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="G5" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C6" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="G6" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="F7" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="G7" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B8" s="53">
         <v>25</v>
@@ -6636,146 +6624,146 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F9" s="63" t="s">
         <v>1041</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="G9" s="63" t="s">
         <v>1042</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>913</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>914</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>915</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>916</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>917</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>918</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>919</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>920</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>921</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>922</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>914</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>915</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>917</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>918</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>920</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>922</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>915</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>918</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>919</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>921</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>922</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>913</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>914</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>915</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>916</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>917</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>918</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>919</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>920</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>921</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>922</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6798,7 +6786,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6821,142 +6809,142 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>915</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>916</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>915</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>920</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>921</v>
-      </c>
       <c r="G17" s="45" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>429</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B22" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>907</v>
-      </c>
-      <c r="D22" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="G22" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -6979,48 +6967,48 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>900</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>901</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>902</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>903</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>905</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>895</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7328,7 +7316,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -7351,16 +7339,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -7368,16 +7356,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7385,7 +7373,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B4" s="64">
         <v>0.25</v>
@@ -7408,7 +7396,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B5" s="65">
         <v>0.5</v>
@@ -7431,149 +7419,149 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1009</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>954</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D12" s="14">
         <v>0.16</v>
@@ -7590,214 +7578,214 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F16" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>990</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>994</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>995</v>
-      </c>
       <c r="E21" s="55" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
@@ -7820,7 +7808,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -7843,10 +7831,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7856,53 +7844,53 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>948</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>950</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>951</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D27" s="22"/>
       <c r="F27" s="22"/>
@@ -7910,76 +7898,76 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>967</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8002,48 +7990,48 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8326,22 +8314,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>32</v>
@@ -8356,692 +8344,692 @@
         <v>35</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F3" t="s">
+        <v>778</v>
+      </c>
+      <c r="G3" t="s">
         <v>783</v>
-      </c>
-      <c r="G3" t="s">
-        <v>788</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="I5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="K5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G6" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="H6" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I6" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="J6" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="K6" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H7" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F8" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G8" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H8" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G9" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F10" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G10" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F11" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="K11" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G12" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="K12" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F13" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="K13" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F14" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="K14" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F15" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="K15" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="K16" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="F17" t="s">
+        <v>778</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="F17" t="s">
-        <v>783</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>809</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>810</v>
-      </c>
       <c r="K17" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F18" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="K18" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F19" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="K19" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F20" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G20" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F21" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K21" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F22" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="K22" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F23" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J23" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="K23" t="s">
         <v>864</v>
-      </c>
-      <c r="K23" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F26" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K26" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E27" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="F27" t="s">
+        <v>778</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="F27" t="s">
-        <v>783</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>798</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>799</v>
-      </c>
       <c r="K27" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F28" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="K28" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F29" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="K29" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -9476,7 +9464,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -9502,804 +9490,804 @@
         <v>43</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10311,8 +10299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A6081-1E0B-4507-B926-A0569455F6C4}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10324,7 +10312,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -10353,19 +10341,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10373,22 +10361,22 @@
         <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10396,22 +10384,22 @@
         <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10419,22 +10407,22 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -10442,53 +10430,53 @@
         <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>47</v>
@@ -10497,41 +10485,41 @@
         <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -10540,47 +10528,47 @@
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
@@ -10600,7 +10588,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
@@ -10623,7 +10611,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -10646,33 +10634,33 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
@@ -10692,7 +10680,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
@@ -10704,7 +10692,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
@@ -10715,30 +10703,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -10761,25 +10749,25 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1054</v>
+        <v>1016</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10816,7 +10804,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -10839,30 +10827,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10885,30 +10873,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -10931,7 +10919,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -10954,7 +10942,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -10977,7 +10965,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -11000,30 +10988,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -11046,30 +11034,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -11092,7 +11080,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -11115,7 +11103,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -11138,7 +11126,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -11147,21 +11135,21 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -11184,7 +11172,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -11207,7 +11195,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -11230,7 +11218,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11276,7 +11264,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -11299,527 +11287,527 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B28" s="14">
         <v>0.25</v>
@@ -11842,300 +11830,300 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>307</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -12160,7 +12148,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -12183,11 +12171,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -12196,434 +12184,434 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>552</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>554</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>217</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>540</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="E12" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="G12" s="31" t="s">
         <v>545</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="E14" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>534</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>529</v>
       </c>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>529</v>
-      </c>
       <c r="E19" s="29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>529</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>529</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="G22" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>529</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12991,7 +12979,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -13014,279 +13002,279 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>454</v>
       </c>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="E9" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="F12" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13636,7 +13624,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -13659,137 +13647,137 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>527</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>566</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>580</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>582</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -13798,192 +13786,192 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>576</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>527</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="F15" s="33" t="s">
         <v>527</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="F16" s="33" t="s">
         <v>527</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="F17" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>458</v>
-      </c>
       <c r="G17" s="33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>453</v>
-      </c>
       <c r="E19" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>559</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14310,8 +14298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E87817-6BA9-486E-B41F-6DC05303F655}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14322,7 +14310,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -14345,130 +14333,130 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>167</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>594</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>56</v>
+        <v>1064</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>603</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B8" s="53">
         <v>3</v>
@@ -14491,25 +14479,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
